--- a/docs/xlsx.to.mdJSON_Dictionary_Template.xlsx
+++ b/docs/xlsx.to.mdJSON_Dictionary_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\OneDrive - DOI\Data_management\mdEditor\Dictionary_autofill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/xlsx-to-mdJSON-dictionary/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995633FA-61E2-7B40-8A36-33C53E45B993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17952" windowHeight="8592" tabRatio="747"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24080" windowHeight="11200" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -225,12 +226,6 @@
     <t>Attribute name; the code used to identify this attribute; most often this will be the table or spreadsheet column name.</t>
   </si>
   <si>
-    <t>A descriptive name associated with the Domain Item value; Default is to use the Domain Item Value; Colum name rows are 'colname'</t>
-  </si>
-  <si>
-    <t>The Domain Item value; the value in the table; colum name rows are 'colname'</t>
-  </si>
-  <si>
     <t>The datatype or format of the entry values for an attribute; choose from drop down</t>
   </si>
   <si>
@@ -361,12 +356,18 @@
   </si>
   <si>
     <t>Whether the attribute should be associated with a domain (yes/no); an identifier will be created later</t>
+  </si>
+  <si>
+    <t>A descriptive name associated with the Domain Item value; Default is to use the Domain Item Value; rows regarding attributes are 'colname'</t>
+  </si>
+  <si>
+    <t>The Domain Item value; the value in the table; rows regarding attributes are 'colname'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1189,23 +1190,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1246,21 +1255,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:N587">
-    <sortState ref="A2:M587">
+  <autoFilter ref="A1:N587" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M587">
       <sortCondition ref="J1:J587"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1268,13 +1277,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>J2:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
@@ -1287,23 +1296,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1361,10 +1370,10 @@
         <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1378,16 +1387,16 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1404,7 +1413,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1418,10 +1427,10 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1435,10 +1444,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1452,10 +1461,10 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1469,10 +1478,10 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1486,10 +1495,10 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1503,10 +1512,10 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1520,10 +1529,10 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1537,10 +1546,10 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1554,10 +1563,10 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1571,10 +1580,10 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1588,10 +1597,10 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1605,10 +1614,10 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1622,10 +1631,10 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1639,10 +1648,10 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1656,10 +1665,10 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1673,10 +1682,10 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1690,10 +1699,10 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1707,10 +1716,10 @@
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1724,10 +1733,10 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1741,10 +1750,10 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1758,10 +1767,10 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1775,10 +1784,10 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1792,10 +1801,10 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1809,10 +1818,10 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1826,10 +1835,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1843,10 +1852,10 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1860,10 +1869,10 @@
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1877,10 +1886,10 @@
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1894,10 +1903,10 @@
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1911,10 +1920,10 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1931,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1945,10 +1954,10 @@
         <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1962,10 +1971,10 @@
         <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1979,10 +1988,10 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1996,10 +2005,10 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2013,10 +2022,10 @@
         <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2030,10 +2039,10 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2047,10 +2056,10 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2064,10 +2073,10 @@
         <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2081,13 +2090,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2101,13 +2110,13 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2124,10 +2133,10 @@
         <v>62</v>
       </c>
       <c r="J46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2141,13 +2150,13 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2164,10 +2173,10 @@
         <v>59</v>
       </c>
       <c r="J48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2184,10 +2193,10 @@
         <v>60</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2204,10 +2213,10 @@
         <v>61</v>
       </c>
       <c r="J50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2221,13 +2230,13 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2241,13 +2250,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2261,13 +2270,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2284,17 +2293,17 @@
         <v>63</v>
       </c>
       <c r="J54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N54">
-    <sortState ref="A2:M587">
+  <autoFilter ref="A1:N54" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M587">
       <sortCondition ref="J1:J587"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -2302,21 +2311,21 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>K2:L1048576 J55:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
-            <xm:f>'C:\Users\hvincelette\OneDrive - DOI\Data_management\Project_maintenance\Reformatted_data\Banding\[Banding_Dictionary.xlsx]validation_values'!#REF!</xm:f>
+            <xm:f>'/Users/hdvincelette/Desktop/C:\Users\hvincelette\OneDrive - DOI\Data_management\Project_maintenance\Reformatted_data\Banding\[Banding_Dictionary.xlsx]validation_values'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J54</xm:sqref>
         </x14:dataValidation>
@@ -2327,227 +2336,227 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2559,9 +2568,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2774,27 +2786,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2819,9 +2819,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>